--- a/학습자료/단답형/객관식_삼국시대_연도(왕)_통일신라.xlsx
+++ b/학습자료/단답형/객관식_삼국시대_연도(왕)_통일신라.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>신라 삼국 통일
-1. 799년 : 헌덕왕
-2. 713년 : 성덕왕
-3. 676년 : 문무왕</t>
+1. 676년 : 문무왕
+2. 689년 : 신문왕
+3. 682년 : 신문왕</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3, 676년 : 문무왕</t>
+          <t>1, 676년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>통일신라 문무왕릉 건립
-1. 834년 : 문성왕
-2. 676년 : 신문왕
-3. 906년 : 효공왕</t>
+1. 676년 : 신문왕
+2. 905년 : 효공왕
+3. 722년 : 성덕왕</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2, 676년 : 신문왕</t>
+          <t>1, 676년 : 신문왕</t>
         </is>
       </c>
     </row>
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>통일신라 김흠돌 모역 사건
-1. 681년 : 신문왕
-2. 926년 : 경애왕
-3. 905년 : 효공왕</t>
+1. 888년 : 진성여왕
+2. 846년 : 진성여왕
+3. 681년 : 신문왕</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1, 681년 : 신문왕</t>
+          <t>3, 681년 : 신문왕</t>
         </is>
       </c>
     </row>
@@ -495,8 +495,8 @@
         <is>
           <t>통일신라 국학 설립
 1. 681년 : 신문왕
-2. 930년 : 경순왕
-3. 737년 : 경덕왕</t>
+2. 792년 : 소성왕
+3. 689년 : 효소왕</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>통일신라 감은사 창건
-1. 676년 : 문무왕
-2. 737년 : 경덕왕
-3. 682년 : 신문왕</t>
+1. 682년 : 신문왕
+2. 818년 : 헌덕왕
+3. 911년 : 경명왕</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3, 682년 : 신문왕</t>
+          <t>1, 682년 : 신문왕</t>
         </is>
       </c>
     </row>
@@ -524,14 +524,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>안승의 조카 대문의 금마저 반역
-1. 682년 : 신문왕
-2. 897년 : 효공왕
-3. 828년 : 흥덕왕</t>
+1. 785년 : 원성왕
+2. 834년 : 문성왕
+3. 682년 : 신문왕</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1, 682년 : 신문왕</t>
+          <t>3, 682년 : 신문왕</t>
         </is>
       </c>
     </row>
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>통일신라 9주 5소경 정비
-1. 684년 : 신문왕
-2. 930년 : 경순왕
-3. 676년 : 문무왕</t>
+1. 906년 : 효공왕
+2. 684년 : 신문왕
+3. 897년 : 효공왕</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1, 684년 : 신문왕</t>
+          <t>2, 684년 : 신문왕</t>
         </is>
       </c>
     </row>
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>통일신라 관료전 지급
-1. 685년 : 신문왕
-2. 896년 : 효공왕
-3. 901년 : 효공왕</t>
+1. 737년 : 경덕왕
+2. 889년 : 진성여왕
+3. 685년 : 신문왕</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1, 685년 : 신문왕</t>
+          <t>3, 685년 : 신문왕</t>
         </is>
       </c>
     </row>
@@ -569,14 +569,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>통일신라 9서당 10정 정비
-1. 755년 : 경덕왕
-2. 687년 : 신문왕
-3. 911년 : 경명왕</t>
+1. 834년 : 문성왕
+2. 905년 : 효공왕
+3. 687년 : 신문왕</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2, 687년 : 신문왕</t>
+          <t>3, 687년 : 신문왕</t>
         </is>
       </c>
     </row>
@@ -584,14 +584,14 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>통일신라 녹읍 폐지
-1. 687년 : 신문왕
-2. 900년 : 효공왕
+1. 689년 : 신문왕
+2. 687년 : 신문왕
 3. 792년 : 소성왕</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1, 687년 : 신문왕</t>
+          <t>2, 687년 : 신문왕</t>
         </is>
       </c>
     </row>
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>통일신라 달구벌 천도 실패
-1. 722년 : 성덕왕
-2. 834년 : 문성왕
-3. 689년 : 신문왕</t>
+1. 720년 : 성덕왕
+2. 689년 : 신문왕
+3. 818년 : 헌덕왕</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3, 689년 : 신문왕</t>
+          <t>2, 689년 : 신문왕</t>
         </is>
       </c>
     </row>
@@ -614,14 +614,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>통일신라 서시 남시 증설
-1. 689년 : 효소왕
-2. 732년 : 성덕왕
-3. 676년 : 신문왕</t>
+1. 771년 : 혜공왕
+2. 846년 : 진성여왕
+3. 689년 : 효소왕</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1, 689년 : 효소왕</t>
+          <t>3, 689년 : 효소왕</t>
         </is>
       </c>
     </row>
@@ -629,9 +629,9 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>통일신라 공자 화상 국학에 안치
-1. 894년 : 진성여왕
+1. 737년 : 경덕왕
 2. 713년 : 성덕왕
-3. 888년 : 진성여왕</t>
+3. 768년 : 혜공왕</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -644,8 +644,8 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>통일신라 정전 지급
-1. 732년 : 성덕왕
-2. 737년 : 경덕왕
+1. 722년 : 성덕왕
+2. 900년 : 효공왕
 3. 720년 : 성덕왕</t>
         </is>
       </c>
@@ -659,9 +659,9 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>통일신라 상원사 동종 주조
-1. 905년 : 효공왕
+1. 681년 : 신문왕
 2. 722년 : 성덕왕
-3. 896년 : 효공왕</t>
+3. 720년 : 성덕왕</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -674,14 +674,14 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>통일신라 발해 공격
-1. 846년 : 진성여왕
-2. 732년 : 성덕왕
-3. 911년 : 경명왕</t>
+1. 732년 : 성덕왕
+2. 897년 : 효공왕
+3. 689년 : 효소왕</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2, 732년 : 성덕왕</t>
+          <t>1, 732년 : 성덕왕</t>
         </is>
       </c>
     </row>
@@ -689,14 +689,14 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>통일신라 불국사 석굴암 건립
-1. 930년 : 경순왕
-2. 687년 : 신문왕
-3. 737년 : 경덕왕</t>
+1. 737년 : 경덕왕
+2. 934년 : 경순왕
+3. 771년 : 혜공왕</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3, 737년 : 경덕왕</t>
+          <t>1, 737년 : 경덕왕</t>
         </is>
       </c>
     </row>
@@ -704,14 +704,14 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>통일신라 녹읍 부활
-1. 755년 : 경덕왕
-2. 768년 : 혜공왕
-3. 901년 : 효공왕</t>
+1. 682년 : 신문왕
+2. 676년 : 신문왕
+3. 755년 : 경덕왕</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1, 755년 : 경덕왕</t>
+          <t>3, 755년 : 경덕왕</t>
         </is>
       </c>
     </row>
@@ -719,14 +719,14 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>통일신라 대공의 난 발발
-1. 762년 : 혜공왕
-2. 888년 : 진성여왕
-3. 926년 : 경애왕</t>
+1. 901년 : 효공왕
+2. 762년 : 혜공왕
+3. 792년 : 소성왕</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1, 762년 : 혜공왕</t>
+          <t>2, 762년 : 혜공왕</t>
         </is>
       </c>
     </row>
@@ -734,14 +734,14 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>통일신라 96각간의 난 발발
-1. 897년 : 효공왕
-2. 934년 : 경순왕
-3. 768년 : 혜공왕</t>
+1. 768년 : 혜공왕
+2. 687년 : 신문왕
+3. 799년 : 헌덕왕</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3, 768년 : 혜공왕</t>
+          <t>1, 768년 : 혜공왕</t>
         </is>
       </c>
     </row>
@@ -749,14 +749,14 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>통일신라 성덕대왕신종 완성
-1. 926년 : 경애왕
-2. 768년 : 혜공왕
+1. 768년 : 혜공왕
+2. 684년 : 신문왕
 3. 722년 : 성덕왕</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2, 768년 : 혜공왕</t>
+          <t>1, 768년 : 혜공왕</t>
         </is>
       </c>
     </row>
@@ -765,8 +765,8 @@
         <is>
           <t>통일신라 김지정의 난 발발
 1. 771년 : 혜공왕
-2. 911년 : 경명왕
-3. 927년 : 경순왕</t>
+2. 846년 : 진성여왕
+3. 732년 : 성덕왕</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -779,14 +779,14 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>통일신라 독서삼품과 실시
-1. 792년 : 소성왕
-2. 722년 : 성덕왕
-3. 785년 : 원성왕</t>
+1. 785년 : 원성왕
+2. 935년 : 경순왕
+3. 732년 : 성덕왕</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3, 785년 : 원성왕</t>
+          <t>1, 785년 : 원성왕</t>
         </is>
       </c>
     </row>
@@ -794,8 +794,8 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>신라 청주 거로현을 국학생의 녹읍으로 사용
-1. 825년 : 흥덕왕
-2. 906년 : 효공왕
+1. 906년 : 효공왕
+2. 755년 : 경덕왕
 3. 792년 : 소성왕</t>
         </is>
       </c>
@@ -810,13 +810,13 @@
         <is>
           <t>통일신라 이차돈 순교비 건립
 1. 822년 : 헌덕왕
-2. 799년 : 헌덕왕
-3. 897년 : 효공왕</t>
+2. 900년 : 효공왕
+3. 799년 : 헌덕왕</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2, 799년 : 헌덕왕</t>
+          <t>3, 799년 : 헌덕왕</t>
         </is>
       </c>
     </row>
@@ -824,14 +824,14 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>통일신라 김헌창의 난
-1. 689년 : 효소왕
-2. 755년 : 경덕왕
-3. 818년 : 헌덕왕</t>
+1. 935년 : 경순왕
+2. 818년 : 헌덕왕
+3. 892년 : 진성여왕</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3, 818년 : 헌덕왕</t>
+          <t>2, 818년 : 헌덕왕</t>
         </is>
       </c>
     </row>
@@ -839,14 +839,14 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>통일신라 김범문의 난
-1. 687년 : 신문왕
-2. 896년 : 효공왕
-3. 822년 : 헌덕왕</t>
+1. 822년 : 헌덕왕
+2. 926년 : 경애왕
+3. 792년 : 소성왕</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3, 822년 : 헌덕왕</t>
+          <t>1, 822년 : 헌덕왕</t>
         </is>
       </c>
     </row>
@@ -854,14 +854,14 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>통일신라 장보고 청해진 설치
-1. 825년 : 흥덕왕
-2. 799년 : 헌덕왕
-3. 689년 : 효소왕</t>
+1. 897년 : 효공왕
+2. 825년 : 흥덕왕
+3. 771년 : 혜공왕</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1, 825년 : 흥덕왕</t>
+          <t>2, 825년 : 흥덕왕</t>
         </is>
       </c>
     </row>
@@ -869,8 +869,8 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>통일신라 사치 금지령 발표
-1. 792년 : 소성왕
-2. 689년 : 신문왕
+1. 900년 : 효공왕
+2. 737년 : 경덕왕
 3. 828년 : 흥덕왕</t>
         </is>
       </c>
@@ -884,14 +884,14 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>통일신라 장보고의 난
-1. 846년 : 진성여왕
-2. 834년 : 문성왕
-3. 681년 : 신문왕</t>
+1. 834년 : 문성왕
+2. 682년 : 신문왕
+3. 799년 : 헌덕왕</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2, 834년 : 문성왕</t>
+          <t>1, 834년 : 문성왕</t>
         </is>
       </c>
     </row>
@@ -899,14 +899,14 @@
       <c r="A32" t="inlineStr">
         <is>
           <t>통일신라 향가집 삼대목 편찬
-1. 681년 : 신문왕
-2. 846년 : 진성여왕
-3. 889년 : 진성여왕</t>
+1. 906년 : 효공왕
+2. 689년 : 효소왕
+3. 846년 : 진성여왕</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2, 846년 : 진성여왕</t>
+          <t>3, 846년 : 진성여왕</t>
         </is>
       </c>
     </row>
@@ -914,14 +914,14 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>통일신라 원종 애노의 난 발발
-1. 888년 : 진성여왕
+1. 900년 : 효공왕
 2. 689년 : 신문왕
-3. 785년 : 원성왕</t>
+3. 888년 : 진성여왕</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1, 888년 : 진성여왕</t>
+          <t>3, 888년 : 진성여왕</t>
         </is>
       </c>
     </row>
@@ -929,14 +929,14 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>통일신라 견훤 무진주 점령
-1. 755년 : 경덕왕
+1. 889년 : 진성여왕
 2. 906년 : 효공왕
-3. 889년 : 진성여왕</t>
+3. 689년 : 효소왕</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3, 889년 : 진성여왕</t>
+          <t>1, 889년 : 진성여왕</t>
         </is>
       </c>
     </row>
@@ -945,8 +945,8 @@
         <is>
           <t>통일신라 최치원 시무 10조 건의 좌절
 1. 892년 : 진성여왕
-2. 687년 : 신문왕
-3. 713년 : 성덕왕</t>
+2. 911년 : 경명왕
+3. 897년 : 효공왕</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -959,14 +959,14 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>통일신라 적고적의 난 발발
-1. 935년 : 경순왕
-2. 894년 : 진성여왕
-3. 685년 : 신문왕</t>
+1. 755년 : 경덕왕
+2. 897년 : 효공왕
+3. 894년 : 진성여왕</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2, 894년 : 진성여왕</t>
+          <t>3, 894년 : 진성여왕</t>
         </is>
       </c>
     </row>
@@ -975,8 +975,8 @@
         <is>
           <t>통일신라 발해와 쟁장 사건
 1. 896년 : 효공왕
-2. 889년 : 진성여왕
-3. 687년 : 신문왕</t>
+2. 684년 : 신문왕
+3. 911년 : 경명왕</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -989,14 +989,14 @@
       <c r="A38" t="inlineStr">
         <is>
           <t>견훤 후백제 건국
-1. 897년 : 효공왕
-2. 722년 : 성덕왕
-3. 685년 : 신문왕</t>
+1. 689년 : 신문왕
+2. 897년 : 효공왕
+3. 901년 : 효공왕</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1, 897년 : 효공왕</t>
+          <t>2, 897년 : 효공왕</t>
         </is>
       </c>
     </row>
@@ -1004,14 +1004,14 @@
       <c r="A39" t="inlineStr">
         <is>
           <t>궁예 후고구려 건국
-1. 900년 : 효공왕
-2. 930년 : 경순왕
-3. 927년 : 경순왕</t>
+1. 685년 : 신문왕
+2. 687년 : 신문왕
+3. 900년 : 효공왕</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1, 900년 : 효공왕</t>
+          <t>3, 900년 : 효공왕</t>
         </is>
       </c>
     </row>
@@ -1020,8 +1020,8 @@
         <is>
           <t>후고구려 국호 마진으로 변경
 1. 901년 : 효공왕
-2. 676년 : 신문왕
-3. 722년 : 성덕왕</t>
+2. 818년 : 헌덕왕
+3. 755년 : 경덕왕</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1034,14 +1034,14 @@
       <c r="A41" t="inlineStr">
         <is>
           <t>후고구려 철원으로 수도 이전
-1. 818년 : 헌덕왕
-2. 682년 : 신문왕
-3. 901년 : 효공왕</t>
+1. 901년 : 효공왕
+2. 896년 : 효공왕
+3. 713년 : 성덕왕</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3, 901년 : 효공왕</t>
+          <t>1, 901년 : 효공왕</t>
         </is>
       </c>
     </row>
@@ -1049,14 +1049,14 @@
       <c r="A42" t="inlineStr">
         <is>
           <t>통일신라 발해와 등제 서열 사건
-1. 732년 : 성덕왕
-2. 900년 : 효공왕
-3. 905년 : 효공왕</t>
+1. 905년 : 효공왕
+2. 846년 : 진성여왕
+3. 720년 : 성덕왕</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3, 905년 : 효공왕</t>
+          <t>1, 905년 : 효공왕</t>
         </is>
       </c>
     </row>
@@ -1064,14 +1064,14 @@
       <c r="A43" t="inlineStr">
         <is>
           <t>후고구려 국호 태봉으로 변경
-1. 906년 : 효공왕
-2. 720년 : 성덕왕
-3. 689년 : 효소왕</t>
+1. 926년 : 경애왕
+2. 687년 : 신문왕
+3. 906년 : 효공왕</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1, 906년 : 효공왕</t>
+          <t>3, 906년 : 효공왕</t>
         </is>
       </c>
     </row>
@@ -1079,14 +1079,14 @@
       <c r="A44" t="inlineStr">
         <is>
           <t>후고구려 멸망 및 고려 건국
-1. 935년 : 경순왕
-2. 911년 : 경명왕
-3. 892년 : 진성여왕</t>
+1. 911년 : 경명왕
+2. 676년 : 문무왕
+3. 755년 : 경덕왕</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2, 911년 : 경명왕</t>
+          <t>1, 911년 : 경명왕</t>
         </is>
       </c>
     </row>
@@ -1094,14 +1094,14 @@
       <c r="A45" t="inlineStr">
         <is>
           <t>후백제 견훤 경주 침공 및 신라왕 살해
-1. 926년 : 경애왕
-2. 687년 : 신문왕
-3. 684년 : 신문왕</t>
+1. 911년 : 경명왕
+2. 926년 : 경애왕
+3. 900년 : 효공왕</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1, 926년 : 경애왕</t>
+          <t>2, 926년 : 경애왕</t>
         </is>
       </c>
     </row>
@@ -1109,14 +1109,14 @@
       <c r="A46" t="inlineStr">
         <is>
           <t>후백제 고려의 공산 전투 
-1. 927년 : 경순왕
-2. 755년 : 경덕왕
-3. 785년 : 원성왕</t>
+1. 720년 : 성덕왕
+2. 927년 : 경순왕
+3. 732년 : 성덕왕</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1, 927년 : 경순왕</t>
+          <t>2, 927년 : 경순왕</t>
         </is>
       </c>
     </row>
@@ -1124,14 +1124,14 @@
       <c r="A47" t="inlineStr">
         <is>
           <t>후백제 고려의 고창 전투
-1. 927년 : 경순왕
-2. 682년 : 신문왕
-3. 755년 : 경덕왕</t>
+1. 681년 : 신문왕
+2. 927년 : 경순왕
+3. 799년 : 헌덕왕</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1, 927년 : 경순왕</t>
+          <t>2, 927년 : 경순왕</t>
         </is>
       </c>
     </row>
@@ -1139,14 +1139,14 @@
       <c r="A48" t="inlineStr">
         <is>
           <t>발해 대광현의 고려 망명
-1. 828년 : 흥덕왕
-2. 818년 : 헌덕왕
-3. 930년 : 경순왕</t>
+1. 892년 : 진성여왕
+2. 930년 : 경순왕
+3. 911년 : 경명왕</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3, 930년 : 경순왕</t>
+          <t>2, 930년 : 경순왕</t>
         </is>
       </c>
     </row>
@@ -1154,14 +1154,14 @@
       <c r="A49" t="inlineStr">
         <is>
           <t>후백제 견훤 고려에 투항
-1. 934년 : 경순왕
-2. 897년 : 효공왕
-3. 768년 : 혜공왕</t>
+1. 682년 : 신문왕
+2. 934년 : 경순왕
+3. 689년 : 효소왕</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1, 934년 : 경순왕</t>
+          <t>2, 934년 : 경순왕</t>
         </is>
       </c>
     </row>
@@ -1169,14 +1169,14 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>통일신라 멸망
-1. 846년 : 진성여왕
-2. 799년 : 헌덕왕
-3. 935년 : 경순왕</t>
+1. 888년 : 진성여왕
+2. 935년 : 경순왕
+3. 930년 : 경순왕</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3, 935년 : 경순왕</t>
+          <t>2, 935년 : 경순왕</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_삼국시대_연도(왕)_통일신라.xlsx
+++ b/학습자료/단답형/객관식_삼국시대_연도(왕)_통일신라.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>신라 삼국 통일
-1. 676년 : 문무왕
-2. 689년 : 신문왕
-3. 682년 : 신문왕</t>
+1. 684년 : 신문왕
+2. 676년 : 문무왕
+3. 911년 : 경명왕</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1, 676년 : 문무왕</t>
+          <t>2, 676년 : 문무왕</t>
         </is>
       </c>
     </row>
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>통일신라 문무왕릉 건립
-1. 676년 : 신문왕
+1. 785년 : 원성왕
 2. 905년 : 효공왕
-3. 722년 : 성덕왕</t>
+3. 676년 : 신문왕</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1, 676년 : 신문왕</t>
+          <t>3, 676년 : 신문왕</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>통일신라 김흠돌 모역 사건
-1. 888년 : 진성여왕
-2. 846년 : 진성여왕
+1. 900년 : 효공왕
+2. 930년 : 경순왕
 3. 681년 : 신문왕</t>
         </is>
       </c>
@@ -495,8 +495,8 @@
         <is>
           <t>통일신라 국학 설립
 1. 681년 : 신문왕
-2. 792년 : 소성왕
-3. 689년 : 효소왕</t>
+2. 825년 : 흥덕왕
+3. 927년 : 경순왕</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -510,8 +510,8 @@
         <is>
           <t>통일신라 감은사 창건
 1. 682년 : 신문왕
-2. 818년 : 헌덕왕
-3. 911년 : 경명왕</t>
+2. 768년 : 혜공왕
+3. 785년 : 원성왕</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,14 +524,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>안승의 조카 대문의 금마저 반역
-1. 785년 : 원성왕
-2. 834년 : 문성왕
-3. 682년 : 신문왕</t>
+1. 682년 : 신문왕
+2. 825년 : 흥덕왕
+3. 822년 : 헌덕왕</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3, 682년 : 신문왕</t>
+          <t>1, 682년 : 신문왕</t>
         </is>
       </c>
     </row>
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>통일신라 9주 5소경 정비
-1. 906년 : 효공왕
-2. 684년 : 신문왕
-3. 897년 : 효공왕</t>
+1. 684년 : 신문왕
+2. 720년 : 성덕왕
+3. 755년 : 경덕왕</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2, 684년 : 신문왕</t>
+          <t>1, 684년 : 신문왕</t>
         </is>
       </c>
     </row>
@@ -554,144 +554,144 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>통일신라 관료전 지급
+1. 685년 : 신문왕
+2. 682년 : 신문왕
+3. 894년 : 진성여왕</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1, 685년 : 신문왕</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>통일신라 9서당 10정 정비
+1. 905년 : 효공왕
+2. 888년 : 진성여왕
+3. 687년 : 신문왕</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3, 687년 : 신문왕</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>통일신라 녹읍 폐지
+1. 687년 : 신문왕
+2. 818년 : 헌덕왕
+3. 771년 : 혜공왕</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1, 687년 : 신문왕</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>통일신라 달구벌 천도 실패
+1. 825년 : 흥덕왕
+2. 689년 : 신문왕
+3. 926년 : 경애왕</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2, 689년 : 신문왕</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>통일신라 서시 남시 증설
+1. 689년 : 효소왕
+2. 737년 : 경덕왕
+3. 681년 : 신문왕</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1, 689년 : 효소왕</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>통일신라 공자 화상 국학에 안치
+1. 818년 : 헌덕왕
+2. 927년 : 경순왕
+3. 713년 : 성덕왕</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3, 713년 : 성덕왕</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>통일신라 정전 지급
+1. 676년 : 문무왕
+2. 906년 : 효공왕
+3. 720년 : 성덕왕</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3, 720년 : 성덕왕</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>통일신라 상원사 동종 주조
+1. 926년 : 경애왕
+2. 722년 : 성덕왕
+3. 901년 : 효공왕</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2, 722년 : 성덕왕</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>통일신라 발해 공격
+1. 930년 : 경순왕
+2. 732년 : 성덕왕
+3. 892년 : 진성여왕</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2, 732년 : 성덕왕</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>통일신라 불국사 석굴암 건립
 1. 737년 : 경덕왕
 2. 889년 : 진성여왕
-3. 685년 : 신문왕</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3, 685년 : 신문왕</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>통일신라 9서당 10정 정비
-1. 834년 : 문성왕
-2. 905년 : 효공왕
-3. 687년 : 신문왕</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3, 687년 : 신문왕</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>통일신라 녹읍 폐지
-1. 689년 : 신문왕
-2. 687년 : 신문왕
-3. 792년 : 소성왕</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2, 687년 : 신문왕</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>통일신라 달구벌 천도 실패
-1. 720년 : 성덕왕
-2. 689년 : 신문왕
-3. 818년 : 헌덕왕</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2, 689년 : 신문왕</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>통일신라 서시 남시 증설
-1. 771년 : 혜공왕
-2. 846년 : 진성여왕
-3. 689년 : 효소왕</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3, 689년 : 효소왕</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>통일신라 공자 화상 국학에 안치
-1. 737년 : 경덕왕
-2. 713년 : 성덕왕
-3. 768년 : 혜공왕</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2, 713년 : 성덕왕</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>통일신라 정전 지급
-1. 722년 : 성덕왕
-2. 900년 : 효공왕
-3. 720년 : 성덕왕</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3, 720년 : 성덕왕</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>통일신라 상원사 동종 주조
-1. 681년 : 신문왕
-2. 722년 : 성덕왕
-3. 720년 : 성덕왕</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2, 722년 : 성덕왕</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>통일신라 발해 공격
-1. 732년 : 성덕왕
-2. 897년 : 효공왕
-3. 689년 : 효소왕</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1, 732년 : 성덕왕</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>통일신라 불국사 석굴암 건립
-1. 737년 : 경덕왕
-2. 934년 : 경순왕
-3. 771년 : 혜공왕</t>
+3. 892년 : 진성여왕</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -704,8 +704,8 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>통일신라 녹읍 부활
-1. 682년 : 신문왕
-2. 676년 : 신문왕
+1. 889년 : 진성여왕
+2. 828년 : 흥덕왕
 3. 755년 : 경덕왕</t>
         </is>
       </c>
@@ -719,14 +719,14 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>통일신라 대공의 난 발발
-1. 901년 : 효공왕
-2. 762년 : 혜공왕
-3. 792년 : 소성왕</t>
+1. 762년 : 혜공왕
+2. 888년 : 진성여왕
+3. 785년 : 원성왕</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2, 762년 : 혜공왕</t>
+          <t>1, 762년 : 혜공왕</t>
         </is>
       </c>
     </row>
@@ -735,8 +735,8 @@
         <is>
           <t>통일신라 96각간의 난 발발
 1. 768년 : 혜공왕
-2. 687년 : 신문왕
-3. 799년 : 헌덕왕</t>
+2. 934년 : 경순왕
+3. 755년 : 경덕왕</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -749,14 +749,14 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>통일신라 성덕대왕신종 완성
-1. 768년 : 혜공왕
-2. 684년 : 신문왕
-3. 722년 : 성덕왕</t>
+1. 689년 : 신문왕
+2. 768년 : 혜공왕
+3. 762년 : 혜공왕</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1, 768년 : 혜공왕</t>
+          <t>2, 768년 : 혜공왕</t>
         </is>
       </c>
     </row>
@@ -764,14 +764,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>통일신라 김지정의 난 발발
-1. 771년 : 혜공왕
-2. 846년 : 진성여왕
-3. 732년 : 성덕왕</t>
+1. 889년 : 진성여왕
+2. 720년 : 성덕왕
+3. 771년 : 혜공왕</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1, 771년 : 혜공왕</t>
+          <t>3, 771년 : 혜공왕</t>
         </is>
       </c>
     </row>
@@ -779,14 +779,14 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>통일신라 독서삼품과 실시
-1. 785년 : 원성왕
-2. 935년 : 경순왕
-3. 732년 : 성덕왕</t>
+1. 926년 : 경애왕
+2. 799년 : 헌덕왕
+3. 785년 : 원성왕</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1, 785년 : 원성왕</t>
+          <t>3, 785년 : 원성왕</t>
         </is>
       </c>
     </row>
@@ -794,8 +794,8 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>신라 청주 거로현을 국학생의 녹읍으로 사용
-1. 906년 : 효공왕
-2. 755년 : 경덕왕
+1. 892년 : 진성여왕
+2. 684년 : 신문왕
 3. 792년 : 소성왕</t>
         </is>
       </c>
@@ -809,8 +809,8 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>통일신라 이차돈 순교비 건립
-1. 822년 : 헌덕왕
-2. 900년 : 효공왕
+1. 684년 : 신문왕
+2. 676년 : 신문왕
 3. 799년 : 헌덕왕</t>
         </is>
       </c>
@@ -824,9 +824,9 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>통일신라 김헌창의 난
-1. 935년 : 경순왕
+1. 822년 : 헌덕왕
 2. 818년 : 헌덕왕
-3. 892년 : 진성여왕</t>
+3. 713년 : 성덕왕</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -839,14 +839,14 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>통일신라 김범문의 난
-1. 822년 : 헌덕왕
-2. 926년 : 경애왕
-3. 792년 : 소성왕</t>
+1. 762년 : 혜공왕
+2. 822년 : 헌덕왕
+3. 682년 : 신문왕</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1, 822년 : 헌덕왕</t>
+          <t>2, 822년 : 헌덕왕</t>
         </is>
       </c>
     </row>
@@ -854,9 +854,9 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>통일신라 장보고 청해진 설치
-1. 897년 : 효공왕
+1. 828년 : 흥덕왕
 2. 825년 : 흥덕왕
-3. 771년 : 혜공왕</t>
+3. 737년 : 경덕왕</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -869,14 +869,14 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>통일신라 사치 금지령 발표
-1. 900년 : 효공왕
-2. 737년 : 경덕왕
-3. 828년 : 흥덕왕</t>
+1. 897년 : 효공왕
+2. 828년 : 흥덕왕
+3. 687년 : 신문왕</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3, 828년 : 흥덕왕</t>
+          <t>2, 828년 : 흥덕왕</t>
         </is>
       </c>
     </row>
@@ -884,14 +884,14 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>통일신라 장보고의 난
-1. 834년 : 문성왕
+1. 755년 : 경덕왕
 2. 682년 : 신문왕
-3. 799년 : 헌덕왕</t>
+3. 834년 : 문성왕</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1, 834년 : 문성왕</t>
+          <t>3, 834년 : 문성왕</t>
         </is>
       </c>
     </row>
@@ -899,8 +899,8 @@
       <c r="A32" t="inlineStr">
         <is>
           <t>통일신라 향가집 삼대목 편찬
-1. 906년 : 효공왕
-2. 689년 : 효소왕
+1. 676년 : 문무왕
+2. 901년 : 효공왕
 3. 846년 : 진성여왕</t>
         </is>
       </c>
@@ -914,8 +914,8 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>통일신라 원종 애노의 난 발발
-1. 900년 : 효공왕
-2. 689년 : 신문왕
+1. 825년 : 흥덕왕
+2. 737년 : 경덕왕
 3. 888년 : 진성여왕</t>
         </is>
       </c>
@@ -929,14 +929,14 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>통일신라 견훤 무진주 점령
-1. 889년 : 진성여왕
-2. 906년 : 효공왕
-3. 689년 : 효소왕</t>
+1. 799년 : 헌덕왕
+2. 825년 : 흥덕왕
+3. 889년 : 진성여왕</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1, 889년 : 진성여왕</t>
+          <t>3, 889년 : 진성여왕</t>
         </is>
       </c>
     </row>
@@ -945,8 +945,8 @@
         <is>
           <t>통일신라 최치원 시무 10조 건의 좌절
 1. 892년 : 진성여왕
-2. 911년 : 경명왕
-3. 897년 : 효공왕</t>
+2. 846년 : 진성여왕
+3. 768년 : 혜공왕</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -959,8 +959,8 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>통일신라 적고적의 난 발발
-1. 755년 : 경덕왕
-2. 897년 : 효공왕
+1. 818년 : 헌덕왕
+2. 889년 : 진성여왕
 3. 894년 : 진성여왕</t>
         </is>
       </c>
@@ -974,14 +974,14 @@
       <c r="A37" t="inlineStr">
         <is>
           <t>통일신라 발해와 쟁장 사건
-1. 896년 : 효공왕
-2. 684년 : 신문왕
-3. 911년 : 경명왕</t>
+1. 762년 : 혜공왕
+2. 896년 : 효공왕
+3. 785년 : 원성왕</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1, 896년 : 효공왕</t>
+          <t>2, 896년 : 효공왕</t>
         </is>
       </c>
     </row>
@@ -989,9 +989,9 @@
       <c r="A38" t="inlineStr">
         <is>
           <t>견훤 후백제 건국
-1. 689년 : 신문왕
+1. 834년 : 문성왕
 2. 897년 : 효공왕
-3. 901년 : 효공왕</t>
+3. 676년 : 신문왕</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1004,14 +1004,14 @@
       <c r="A39" t="inlineStr">
         <is>
           <t>궁예 후고구려 건국
-1. 685년 : 신문왕
-2. 687년 : 신문왕
-3. 900년 : 효공왕</t>
+1. 900년 : 효공왕
+2. 676년 : 신문왕
+3. 934년 : 경순왕</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3, 900년 : 효공왕</t>
+          <t>1, 900년 : 효공왕</t>
         </is>
       </c>
     </row>
@@ -1020,8 +1020,8 @@
         <is>
           <t>후고구려 국호 마진으로 변경
 1. 901년 : 효공왕
-2. 818년 : 헌덕왕
-3. 755년 : 경덕왕</t>
+2. 834년 : 문성왕
+3. 676년 : 문무왕</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1035,8 +1035,8 @@
         <is>
           <t>후고구려 철원으로 수도 이전
 1. 901년 : 효공왕
-2. 896년 : 효공왕
-3. 713년 : 성덕왕</t>
+2. 926년 : 경애왕
+3. 846년 : 진성여왕</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1049,14 +1049,14 @@
       <c r="A42" t="inlineStr">
         <is>
           <t>통일신라 발해와 등제 서열 사건
-1. 905년 : 효공왕
-2. 846년 : 진성여왕
-3. 720년 : 성덕왕</t>
+1. 713년 : 성덕왕
+2. 828년 : 흥덕왕
+3. 905년 : 효공왕</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1, 905년 : 효공왕</t>
+          <t>3, 905년 : 효공왕</t>
         </is>
       </c>
     </row>
@@ -1064,14 +1064,14 @@
       <c r="A43" t="inlineStr">
         <is>
           <t>후고구려 국호 태봉으로 변경
-1. 926년 : 경애왕
-2. 687년 : 신문왕
-3. 906년 : 효공왕</t>
+1. 676년 : 신문왕
+2. 906년 : 효공왕
+3. 682년 : 신문왕</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3, 906년 : 효공왕</t>
+          <t>2, 906년 : 효공왕</t>
         </is>
       </c>
     </row>
@@ -1080,8 +1080,8 @@
         <is>
           <t>후고구려 멸망 및 고려 건국
 1. 911년 : 경명왕
-2. 676년 : 문무왕
-3. 755년 : 경덕왕</t>
+2. 771년 : 혜공왕
+3. 935년 : 경순왕</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1094,9 +1094,9 @@
       <c r="A45" t="inlineStr">
         <is>
           <t>후백제 견훤 경주 침공 및 신라왕 살해
-1. 911년 : 경명왕
+1. 889년 : 진성여왕
 2. 926년 : 경애왕
-3. 900년 : 효공왕</t>
+3. 771년 : 혜공왕</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1109,14 +1109,14 @@
       <c r="A46" t="inlineStr">
         <is>
           <t>후백제 고려의 공산 전투 
-1. 720년 : 성덕왕
-2. 927년 : 경순왕
-3. 732년 : 성덕왕</t>
+1. 927년 : 경순왕
+2. 828년 : 흥덕왕
+3. 768년 : 혜공왕</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2, 927년 : 경순왕</t>
+          <t>1, 927년 : 경순왕</t>
         </is>
       </c>
     </row>
@@ -1124,14 +1124,14 @@
       <c r="A47" t="inlineStr">
         <is>
           <t>후백제 고려의 고창 전투
-1. 681년 : 신문왕
-2. 927년 : 경순왕
-3. 799년 : 헌덕왕</t>
+1. 927년 : 경순왕
+2. 926년 : 경애왕
+3. 684년 : 신문왕</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2, 927년 : 경순왕</t>
+          <t>1, 927년 : 경순왕</t>
         </is>
       </c>
     </row>
@@ -1139,9 +1139,9 @@
       <c r="A48" t="inlineStr">
         <is>
           <t>발해 대광현의 고려 망명
-1. 892년 : 진성여왕
+1. 689년 : 효소왕
 2. 930년 : 경순왕
-3. 911년 : 경명왕</t>
+3. 894년 : 진성여왕</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1154,14 +1154,14 @@
       <c r="A49" t="inlineStr">
         <is>
           <t>후백제 견훤 고려에 투항
-1. 682년 : 신문왕
-2. 934년 : 경순왕
-3. 689년 : 효소왕</t>
+1. 732년 : 성덕왕
+2. 771년 : 혜공왕
+3. 934년 : 경순왕</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2, 934년 : 경순왕</t>
+          <t>3, 934년 : 경순왕</t>
         </is>
       </c>
     </row>
@@ -1169,14 +1169,14 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>통일신라 멸망
-1. 888년 : 진성여왕
-2. 935년 : 경순왕
-3. 930년 : 경순왕</t>
+1. 935년 : 경순왕
+2. 762년 : 혜공왕
+3. 901년 : 효공왕</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2, 935년 : 경순왕</t>
+          <t>1, 935년 : 경순왕</t>
         </is>
       </c>
     </row>
